--- a/data/pca/factorExposure/factorExposure_2019-02-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1198838101557355</v>
+        <v>-0.07252723685638701</v>
       </c>
       <c r="C2">
-        <v>-0.01532665371886782</v>
+        <v>0.0308623936916995</v>
       </c>
       <c r="D2">
-        <v>-0.05179643119364528</v>
+        <v>0.02260119914973657</v>
       </c>
       <c r="E2">
-        <v>0.127548160582439</v>
+        <v>0.04297631982191095</v>
       </c>
       <c r="F2">
-        <v>0.06891608150278729</v>
+        <v>-0.1407988100515631</v>
       </c>
       <c r="G2">
-        <v>-0.08726049280220943</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1033630048986841</v>
+      </c>
+      <c r="H2">
+        <v>-0.06020539834022926</v>
+      </c>
+      <c r="I2">
+        <v>-0.03756909911234985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2123604009727332</v>
+        <v>-0.1641352936952635</v>
       </c>
       <c r="C3">
-        <v>-0.1595204818647592</v>
+        <v>0.1070476782585584</v>
       </c>
       <c r="D3">
-        <v>0.03428713473451634</v>
+        <v>-0.002042551607883943</v>
       </c>
       <c r="E3">
-        <v>0.3296308895817021</v>
+        <v>-0.000599862593543343</v>
       </c>
       <c r="F3">
-        <v>-0.04696310827125547</v>
+        <v>-0.3724896601249365</v>
       </c>
       <c r="G3">
-        <v>-0.07860900052685321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.07799432454455006</v>
+      </c>
+      <c r="H3">
+        <v>-0.27649677979805</v>
+      </c>
+      <c r="I3">
+        <v>-0.2155807018869305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09551368044141371</v>
+        <v>-0.0725497662978129</v>
       </c>
       <c r="C4">
-        <v>-0.04913663675506388</v>
+        <v>0.04871337927383511</v>
       </c>
       <c r="D4">
-        <v>-0.02635391045824965</v>
+        <v>-0.01312452828212201</v>
       </c>
       <c r="E4">
-        <v>0.07068498616916163</v>
+        <v>0.04119046995086279</v>
       </c>
       <c r="F4">
-        <v>0.006520819406924828</v>
+        <v>-0.0807675990647585</v>
       </c>
       <c r="G4">
-        <v>-0.0413030644850449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04373513547015065</v>
+      </c>
+      <c r="H4">
+        <v>-0.02513807680497133</v>
+      </c>
+      <c r="I4">
+        <v>-0.03210340241293933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01842723292117473</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01293873693194973</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.00535915876111512</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.006304509497168211</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.004271113792101499</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0213813250580261</v>
+      </c>
+      <c r="H6">
+        <v>0.001430988580698738</v>
+      </c>
+      <c r="I6">
+        <v>0.01560562229971268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04123900803265517</v>
+        <v>-0.03414491311020161</v>
       </c>
       <c r="C7">
-        <v>-0.01394954786377246</v>
+        <v>0.01652556997667776</v>
       </c>
       <c r="D7">
-        <v>-0.03383304232432865</v>
+        <v>-0.03560302260257449</v>
       </c>
       <c r="E7">
-        <v>0.07525653842067911</v>
+        <v>0.02918287083373156</v>
       </c>
       <c r="F7">
-        <v>-0.04595964960422276</v>
+        <v>-0.05418503041103485</v>
       </c>
       <c r="G7">
-        <v>0.03505021849782959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.007654420447203647</v>
+      </c>
+      <c r="H7">
+        <v>-0.04509413688949684</v>
+      </c>
+      <c r="I7">
+        <v>-0.00334490986087779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04330861154932036</v>
+        <v>-0.02891807731193086</v>
       </c>
       <c r="C8">
-        <v>-0.05707853365042952</v>
+        <v>0.05078544331142625</v>
       </c>
       <c r="D8">
-        <v>-0.005296957186310677</v>
+        <v>-0.01183930361344197</v>
       </c>
       <c r="E8">
-        <v>0.07101997038906602</v>
+        <v>0.02137153650403935</v>
       </c>
       <c r="F8">
-        <v>-0.007376246297982598</v>
+        <v>-0.07085299910570515</v>
       </c>
       <c r="G8">
-        <v>-0.01495673072082715</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01824405823746356</v>
+      </c>
+      <c r="H8">
+        <v>-0.04340403039497767</v>
+      </c>
+      <c r="I8">
+        <v>-0.03879009828704535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08396972753801653</v>
+        <v>-0.060817821898677</v>
       </c>
       <c r="C9">
-        <v>-0.04345184161884336</v>
+        <v>0.04281656125376571</v>
       </c>
       <c r="D9">
-        <v>-0.0327137745644283</v>
+        <v>-0.01701752050130744</v>
       </c>
       <c r="E9">
-        <v>0.05527498903055567</v>
+        <v>0.03590054277279347</v>
       </c>
       <c r="F9">
-        <v>-0.008675600775876377</v>
+        <v>-0.08034165407605673</v>
       </c>
       <c r="G9">
-        <v>-0.04879384355452755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04103667279183051</v>
+      </c>
+      <c r="H9">
+        <v>-0.02435990745669712</v>
+      </c>
+      <c r="I9">
+        <v>-0.01507481558403035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.01936413691510842</v>
+        <v>-0.0349726556998823</v>
       </c>
       <c r="C10">
-        <v>0.1601680056973763</v>
+        <v>-0.1534577681702405</v>
       </c>
       <c r="D10">
-        <v>0.03548277610151761</v>
+        <v>0.005834766992021658</v>
       </c>
       <c r="E10">
-        <v>0.0717008298283591</v>
+        <v>-0.04016479392037937</v>
       </c>
       <c r="F10">
-        <v>0.01458243867534582</v>
+        <v>-0.06840688397029482</v>
       </c>
       <c r="G10">
-        <v>0.001333473834723105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0238355546684654</v>
+      </c>
+      <c r="H10">
+        <v>-0.003952754661004162</v>
+      </c>
+      <c r="I10">
+        <v>-0.1088192530090347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05837058210407939</v>
+        <v>-0.04852593541789703</v>
       </c>
       <c r="C11">
-        <v>-0.01698674649521733</v>
+        <v>0.03186829348184055</v>
       </c>
       <c r="D11">
-        <v>0.006211745000707623</v>
+        <v>0.006730994561516418</v>
       </c>
       <c r="E11">
-        <v>0.04328921676222919</v>
+        <v>0.009849835733717493</v>
       </c>
       <c r="F11">
-        <v>0.00865015081212088</v>
+        <v>-0.0396372021188604</v>
       </c>
       <c r="G11">
-        <v>0.007278238248870533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006836110103550946</v>
+      </c>
+      <c r="H11">
+        <v>-0.0003838808382911052</v>
+      </c>
+      <c r="I11">
+        <v>0.0103432028036133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04441368588245963</v>
+        <v>-0.04525538027159903</v>
       </c>
       <c r="C12">
-        <v>-0.02026179247704249</v>
+        <v>0.02868953395651693</v>
       </c>
       <c r="D12">
-        <v>0.003287570278986028</v>
+        <v>-0.004373832950622217</v>
       </c>
       <c r="E12">
-        <v>0.02723239097110595</v>
+        <v>0.01142112296039951</v>
       </c>
       <c r="F12">
-        <v>-0.008844454367666003</v>
+        <v>-0.01393019557899559</v>
       </c>
       <c r="G12">
-        <v>-0.001353869221481132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-6.548073674631756e-05</v>
+      </c>
+      <c r="H12">
+        <v>-0.003323878929085356</v>
+      </c>
+      <c r="I12">
+        <v>0.007795687903539282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06218232121510034</v>
+        <v>-0.04130101998029183</v>
       </c>
       <c r="C13">
-        <v>-0.03027756506899845</v>
+        <v>0.02664225700841407</v>
       </c>
       <c r="D13">
-        <v>0.007840129864708079</v>
+        <v>0.01562231975624267</v>
       </c>
       <c r="E13">
-        <v>0.1103145352195743</v>
+        <v>0.009609987819244574</v>
       </c>
       <c r="F13">
-        <v>0.008214783696424368</v>
+        <v>-0.1049281583755504</v>
       </c>
       <c r="G13">
-        <v>-0.01260668203962353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.0211814739892447</v>
+      </c>
+      <c r="H13">
+        <v>-0.0444139796791583</v>
+      </c>
+      <c r="I13">
+        <v>-0.0133375515261989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03443842236479742</v>
+        <v>-0.028708258837039</v>
       </c>
       <c r="C14">
-        <v>-0.02210103654866812</v>
+        <v>0.01941867043356531</v>
       </c>
       <c r="D14">
-        <v>-0.02759085854508962</v>
+        <v>-0.004566256922867479</v>
       </c>
       <c r="E14">
-        <v>0.03249051229191347</v>
+        <v>0.02763833379090673</v>
       </c>
       <c r="F14">
-        <v>0.01958651188462433</v>
+        <v>-0.0402300209852298</v>
       </c>
       <c r="G14">
-        <v>0.01570706654114992</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02481250144352132</v>
+      </c>
+      <c r="H14">
+        <v>-0.05318372877835011</v>
+      </c>
+      <c r="I14">
+        <v>-0.008841906428239222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04756318311080112</v>
+        <v>-0.04301081032469999</v>
       </c>
       <c r="C16">
-        <v>-0.02976066140755502</v>
+        <v>0.03858840659898141</v>
       </c>
       <c r="D16">
-        <v>0.009792445979767875</v>
+        <v>0.001003651560618568</v>
       </c>
       <c r="E16">
-        <v>0.03251933039622706</v>
+        <v>0.007123942228981382</v>
       </c>
       <c r="F16">
-        <v>-0.00703640411195555</v>
+        <v>-0.03403262306042578</v>
       </c>
       <c r="G16">
-        <v>0.01023145657012674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.006307060710091974</v>
+      </c>
+      <c r="H16">
+        <v>-0.00788757729004933</v>
+      </c>
+      <c r="I16">
+        <v>0.008601465307222679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.05293532684843161</v>
+        <v>-0.04751100738432577</v>
       </c>
       <c r="C19">
-        <v>-0.04770908254276052</v>
+        <v>0.04512263168079448</v>
       </c>
       <c r="D19">
-        <v>-0.0002023863342050549</v>
+        <v>0.002084031396893689</v>
       </c>
       <c r="E19">
-        <v>0.0786570033289242</v>
+        <v>0.02255323316301841</v>
       </c>
       <c r="F19">
-        <v>-0.005934481616379549</v>
+        <v>-0.08100063851802182</v>
       </c>
       <c r="G19">
-        <v>0.02957588437067846</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.004513974181200821</v>
+      </c>
+      <c r="H19">
+        <v>-0.08061298325018094</v>
+      </c>
+      <c r="I19">
+        <v>-0.03629224638085869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03402882425241802</v>
+        <v>-0.01777191412459144</v>
       </c>
       <c r="C20">
-        <v>-0.04391619766943258</v>
+        <v>0.02942493738822022</v>
       </c>
       <c r="D20">
-        <v>-0.01163694776324842</v>
+        <v>-0.006240576992785925</v>
       </c>
       <c r="E20">
-        <v>0.06663496532292955</v>
+        <v>0.0202776335544179</v>
       </c>
       <c r="F20">
-        <v>-0.01037221131241157</v>
+        <v>-0.06572060956800332</v>
       </c>
       <c r="G20">
-        <v>0.01094400067596523</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.00958298249728015</v>
+      </c>
+      <c r="H20">
+        <v>-0.06869458196656048</v>
+      </c>
+      <c r="I20">
+        <v>-0.0283316520601417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03635524128064913</v>
+        <v>-0.02763112077543832</v>
       </c>
       <c r="C21">
-        <v>-0.03251479942793101</v>
+        <v>0.03049188320957488</v>
       </c>
       <c r="D21">
-        <v>0.001888372997139706</v>
+        <v>-0.01275965047540095</v>
       </c>
       <c r="E21">
-        <v>0.107231277385875</v>
+        <v>0.008217997760327039</v>
       </c>
       <c r="F21">
-        <v>0.03276253435537676</v>
+        <v>-0.07902311253308761</v>
       </c>
       <c r="G21">
-        <v>-0.0340673983112963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03572372494033543</v>
+      </c>
+      <c r="H21">
+        <v>-0.02941406177001573</v>
+      </c>
+      <c r="I21">
+        <v>0.01219470139544768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05058461979817894</v>
+        <v>-0.04151642952326668</v>
       </c>
       <c r="C24">
-        <v>-0.02515431730594572</v>
+        <v>0.03140774151221368</v>
       </c>
       <c r="D24">
-        <v>0.001741611731122274</v>
+        <v>0.0005730033900243728</v>
       </c>
       <c r="E24">
-        <v>0.04349197354324366</v>
+        <v>0.01114549097671083</v>
       </c>
       <c r="F24">
-        <v>-0.009565986242530265</v>
+        <v>-0.03690683754203117</v>
       </c>
       <c r="G24">
-        <v>-7.757352405801656e-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.001453558694763744</v>
+      </c>
+      <c r="H24">
+        <v>-0.002966993804418122</v>
+      </c>
+      <c r="I24">
+        <v>0.009153732579470313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05287859392180558</v>
+        <v>-0.04596548707308327</v>
       </c>
       <c r="C25">
-        <v>-0.01322007962141785</v>
+        <v>0.02678649394838916</v>
       </c>
       <c r="D25">
-        <v>0.002631292392012707</v>
+        <v>0.002188022245550164</v>
       </c>
       <c r="E25">
-        <v>0.04286454910874005</v>
+        <v>0.01009106124838056</v>
       </c>
       <c r="F25">
-        <v>0.003605096936106257</v>
+        <v>-0.04427986096545197</v>
       </c>
       <c r="G25">
-        <v>0.0004998324760176496</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.003712585348590106</v>
+      </c>
+      <c r="H25">
+        <v>0.001927563917016873</v>
+      </c>
+      <c r="I25">
+        <v>0.01219510264550807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02067493578828699</v>
+        <v>-0.01708288762850648</v>
       </c>
       <c r="C26">
-        <v>-0.03065126046556461</v>
+        <v>0.02571625931916272</v>
       </c>
       <c r="D26">
-        <v>-0.004508943257537749</v>
+        <v>0.004804323618224697</v>
       </c>
       <c r="E26">
-        <v>0.03691280122386425</v>
+        <v>0.002113737729026456</v>
       </c>
       <c r="F26">
-        <v>0.02898434750295896</v>
+        <v>-0.04658832788863073</v>
       </c>
       <c r="G26">
-        <v>0.01016943644456222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02147629279715185</v>
+      </c>
+      <c r="H26">
+        <v>-0.03449804346073195</v>
+      </c>
+      <c r="I26">
+        <v>0.006149433996618282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1136373824931739</v>
+        <v>-0.07353441752202733</v>
       </c>
       <c r="C27">
-        <v>-0.0380004233957607</v>
+        <v>0.03206655214909424</v>
       </c>
       <c r="D27">
-        <v>-0.02358736279650124</v>
+        <v>-0.004395446920659609</v>
       </c>
       <c r="E27">
-        <v>0.0931461070347766</v>
+        <v>0.0352524894144343</v>
       </c>
       <c r="F27">
-        <v>-0.004188628592876491</v>
+        <v>-0.06709549327848709</v>
       </c>
       <c r="G27">
-        <v>-0.02040149767507054</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.0193749616483628</v>
+      </c>
+      <c r="H27">
+        <v>-0.01219056100728263</v>
+      </c>
+      <c r="I27">
+        <v>-0.02461985332804645</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.0161702206906936</v>
+        <v>-0.05256725599148931</v>
       </c>
       <c r="C28">
-        <v>0.2403422298660625</v>
+        <v>-0.2346323736239576</v>
       </c>
       <c r="D28">
-        <v>0.03732548614030082</v>
+        <v>-0.001268980168290971</v>
       </c>
       <c r="E28">
-        <v>0.05106139271524449</v>
+        <v>-0.05967831992660273</v>
       </c>
       <c r="F28">
-        <v>0.02769678723885512</v>
+        <v>-0.05925014065009006</v>
       </c>
       <c r="G28">
-        <v>-0.01628217500597352</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02470122558557505</v>
+      </c>
+      <c r="H28">
+        <v>0.001332986380336514</v>
+      </c>
+      <c r="I28">
+        <v>-0.1605833125379089</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02369692481982609</v>
+        <v>-0.02403904881660493</v>
       </c>
       <c r="C29">
-        <v>-0.02557942107683213</v>
+        <v>0.01866308874437937</v>
       </c>
       <c r="D29">
-        <v>-0.02896462566994491</v>
+        <v>-0.008608985991428647</v>
       </c>
       <c r="E29">
-        <v>0.0323922700101852</v>
+        <v>0.02753359902459497</v>
       </c>
       <c r="F29">
-        <v>0.01597660604790238</v>
+        <v>-0.03413042367947319</v>
       </c>
       <c r="G29">
-        <v>0.004077934321683197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02700802870392332</v>
+      </c>
+      <c r="H29">
+        <v>-0.05236830529534934</v>
+      </c>
+      <c r="I29">
+        <v>-0.00294875889661865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.114620739074928</v>
+        <v>-0.08896994157302147</v>
       </c>
       <c r="C30">
-        <v>-0.02493762523152985</v>
+        <v>0.05056641791220649</v>
       </c>
       <c r="D30">
-        <v>-0.02713666409455813</v>
+        <v>0.03817406128623953</v>
       </c>
       <c r="E30">
-        <v>0.1118995642133356</v>
+        <v>0.03390962264076141</v>
       </c>
       <c r="F30">
-        <v>-0.003191852456019425</v>
+        <v>-0.1030106553540129</v>
       </c>
       <c r="G30">
-        <v>0.02117611698153869</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01628841705974337</v>
+      </c>
+      <c r="H30">
+        <v>-0.01760895375622078</v>
+      </c>
+      <c r="I30">
+        <v>0.01161607128226726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06733497917569853</v>
+        <v>-0.06259296585156325</v>
       </c>
       <c r="C31">
-        <v>-0.01461179917682937</v>
+        <v>0.02201797207916748</v>
       </c>
       <c r="D31">
-        <v>-0.01481602330193285</v>
+        <v>0.01180327697829927</v>
       </c>
       <c r="E31">
-        <v>-0.01892879805547235</v>
+        <v>0.02296274801051118</v>
       </c>
       <c r="F31">
-        <v>0.04202974580712014</v>
+        <v>-0.00211609570652189</v>
       </c>
       <c r="G31">
-        <v>0.03883323270522109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04015657831784485</v>
+      </c>
+      <c r="H31">
+        <v>-0.03303338875637427</v>
+      </c>
+      <c r="I31">
+        <v>-0.0120137298719964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.06273678290144155</v>
+        <v>-0.04232992347058936</v>
       </c>
       <c r="C32">
-        <v>-0.04440342945457727</v>
+        <v>0.05250108912580771</v>
       </c>
       <c r="D32">
-        <v>-0.01439422347699747</v>
+        <v>-0.01419835325476162</v>
       </c>
       <c r="E32">
-        <v>0.1058910439962191</v>
+        <v>0.03287776428325727</v>
       </c>
       <c r="F32">
-        <v>-0.004841134750794764</v>
+        <v>-0.08626089711923463</v>
       </c>
       <c r="G32">
-        <v>0.01658893827991348</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01221150536116314</v>
+      </c>
+      <c r="H32">
+        <v>-0.03781200390804619</v>
+      </c>
+      <c r="I32">
+        <v>-0.02480683406351325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06763414385371873</v>
+        <v>-0.05611841249574652</v>
       </c>
       <c r="C33">
-        <v>-0.04862714046253246</v>
+        <v>0.05285645036529362</v>
       </c>
       <c r="D33">
-        <v>-0.0113749520277288</v>
+        <v>0.01952519969930369</v>
       </c>
       <c r="E33">
-        <v>0.07591942168762233</v>
+        <v>0.01475938690028021</v>
       </c>
       <c r="F33">
-        <v>0.04011684582783018</v>
+        <v>-0.07559285796685541</v>
       </c>
       <c r="G33">
-        <v>-0.0131285786996729</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03261716343386766</v>
+      </c>
+      <c r="H33">
+        <v>-0.03918056805946164</v>
+      </c>
+      <c r="I33">
+        <v>0.007221879375891467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04870498789021596</v>
+        <v>-0.04374946695750851</v>
       </c>
       <c r="C34">
-        <v>-0.0229016259266379</v>
+        <v>0.03489880361735312</v>
       </c>
       <c r="D34">
-        <v>-0.00185217301815064</v>
+        <v>-0.003634524562613363</v>
       </c>
       <c r="E34">
-        <v>0.02741393515723</v>
+        <v>0.01769525590118132</v>
       </c>
       <c r="F34">
-        <v>-0.006573348194237968</v>
+        <v>-0.0305256000868849</v>
       </c>
       <c r="G34">
-        <v>0.008150292361641042</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0008833395875254595</v>
+      </c>
+      <c r="H34">
+        <v>-0.009201682546496824</v>
+      </c>
+      <c r="I34">
+        <v>0.006556667157883695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01375009600528565</v>
+        <v>-0.01611909276800267</v>
       </c>
       <c r="C36">
-        <v>-0.001757327097297602</v>
+        <v>0.002765688685555925</v>
       </c>
       <c r="D36">
-        <v>-0.007222724046944707</v>
+        <v>-0.004279635383595853</v>
       </c>
       <c r="E36">
-        <v>0.0230752079677043</v>
+        <v>0.0111981040013129</v>
       </c>
       <c r="F36">
-        <v>0.0151623596368085</v>
+        <v>-0.0269088832182478</v>
       </c>
       <c r="G36">
-        <v>0.008735859472679047</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02271446846801556</v>
+      </c>
+      <c r="H36">
+        <v>-0.03057360680217529</v>
+      </c>
+      <c r="I36">
+        <v>0.005739782682757425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.05110534817673382</v>
+        <v>-0.03488719983976828</v>
       </c>
       <c r="C38">
-        <v>-0.01716480624710025</v>
+        <v>0.01442812233901629</v>
       </c>
       <c r="D38">
-        <v>-0.02505731129974633</v>
+        <v>-0.003073824739088325</v>
       </c>
       <c r="E38">
-        <v>0.02425333392909098</v>
+        <v>0.01336571111736002</v>
       </c>
       <c r="F38">
-        <v>-0.01587676053739397</v>
+        <v>-0.04741243792727555</v>
       </c>
       <c r="G38">
-        <v>-0.02388274273196803</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02687802265034103</v>
+      </c>
+      <c r="H38">
+        <v>-0.01410746041230422</v>
+      </c>
+      <c r="I38">
+        <v>0.01229570472256756</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07319124238847752</v>
+        <v>-0.05615064629728547</v>
       </c>
       <c r="C39">
-        <v>-0.02265841538119345</v>
+        <v>0.04562561845048916</v>
       </c>
       <c r="D39">
-        <v>-0.00311774799972808</v>
+        <v>0.005615010024159454</v>
       </c>
       <c r="E39">
-        <v>0.04105502400602189</v>
+        <v>0.01843667652001421</v>
       </c>
       <c r="F39">
-        <v>0.01184200944997993</v>
+        <v>-0.0538516322873677</v>
       </c>
       <c r="G39">
-        <v>-0.008289149118375843</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01880363745821904</v>
+      </c>
+      <c r="H39">
+        <v>-0.001492246475018516</v>
+      </c>
+      <c r="I39">
+        <v>0.03010529123387907</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07618515326986268</v>
+        <v>-0.05566344049018835</v>
       </c>
       <c r="C40">
-        <v>-0.04715585815222482</v>
+        <v>0.04205675477154334</v>
       </c>
       <c r="D40">
-        <v>-0.00847557058043766</v>
+        <v>0.02145159506518221</v>
       </c>
       <c r="E40">
-        <v>0.1062840610261957</v>
+        <v>0.02539569449011547</v>
       </c>
       <c r="F40">
-        <v>0.006154907268880125</v>
+        <v>-0.09381058553490018</v>
       </c>
       <c r="G40">
-        <v>-0.03533974792408125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02254865327988466</v>
+      </c>
+      <c r="H40">
+        <v>-0.04897781301822528</v>
+      </c>
+      <c r="I40">
+        <v>-0.02336806877469449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.002273637590669175</v>
+        <v>-0.003937424081618351</v>
       </c>
       <c r="C41">
-        <v>-0.02196438217176984</v>
+        <v>0.01230517792028073</v>
       </c>
       <c r="D41">
-        <v>-0.02784857570961216</v>
+        <v>0.0003166017234794526</v>
       </c>
       <c r="E41">
-        <v>0.01289431978038016</v>
+        <v>0.01068306538123596</v>
       </c>
       <c r="F41">
-        <v>0.03199009580825021</v>
+        <v>-0.01363798875852619</v>
       </c>
       <c r="G41">
-        <v>-0.001723402614878923</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03398410210005236</v>
+      </c>
+      <c r="H41">
+        <v>-0.03226412312132584</v>
+      </c>
+      <c r="I41">
+        <v>-0.0241571326251709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.138941935651588</v>
+        <v>-0.2168329381037857</v>
       </c>
       <c r="C42">
-        <v>-0.232089603780168</v>
+        <v>0.2780888849744228</v>
       </c>
       <c r="D42">
-        <v>0.9204917241523531</v>
+        <v>0.05237916307877718</v>
       </c>
       <c r="E42">
-        <v>-0.1150556644283441</v>
+        <v>-0.9054426417902777</v>
       </c>
       <c r="F42">
-        <v>0.05519733538748244</v>
+        <v>0.1563135270757937</v>
       </c>
       <c r="G42">
-        <v>0.1161128854253707</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.004846511659624905</v>
+      </c>
+      <c r="H42">
+        <v>0.0003012678643762856</v>
+      </c>
+      <c r="I42">
+        <v>-0.05269451278406592</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.004209640179672532</v>
+        <v>-0.00685315906727324</v>
       </c>
       <c r="C43">
-        <v>-0.02327807162990642</v>
+        <v>0.01458084465126995</v>
       </c>
       <c r="D43">
-        <v>-0.01811650798875207</v>
+        <v>0.002761222035745144</v>
       </c>
       <c r="E43">
-        <v>0.03572462188324499</v>
+        <v>0.01071698534232702</v>
       </c>
       <c r="F43">
-        <v>0.01644417660823523</v>
+        <v>-0.02816012476659155</v>
       </c>
       <c r="G43">
-        <v>0.01274606944851847</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.0187894729310165</v>
+      </c>
+      <c r="H43">
+        <v>-0.03135249996999939</v>
+      </c>
+      <c r="I43">
+        <v>-0.01457548298330386</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04061301701827646</v>
+        <v>-0.02816263038378303</v>
       </c>
       <c r="C44">
-        <v>-0.05287489202210342</v>
+        <v>0.0429397011351486</v>
       </c>
       <c r="D44">
-        <v>-0.0151888159093096</v>
+        <v>-0.001090007605232883</v>
       </c>
       <c r="E44">
-        <v>0.1267524910995336</v>
+        <v>0.01233175040659998</v>
       </c>
       <c r="F44">
-        <v>0.07928704149326765</v>
+        <v>-0.1212301964823034</v>
       </c>
       <c r="G44">
-        <v>-0.02758425545823416</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.05773375909112403</v>
+      </c>
+      <c r="H44">
+        <v>-0.102284531600381</v>
+      </c>
+      <c r="I44">
+        <v>-0.02482565605106277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02953787394482017</v>
+        <v>-0.02587111069550441</v>
       </c>
       <c r="C46">
-        <v>-0.0273977790459057</v>
+        <v>0.03436549071712139</v>
       </c>
       <c r="D46">
-        <v>-0.03092871384921919</v>
+        <v>0.003379331751578506</v>
       </c>
       <c r="E46">
-        <v>0.03359065808448634</v>
+        <v>0.03099940971915649</v>
       </c>
       <c r="F46">
-        <v>0.03192742399717063</v>
+        <v>-0.04734384503968499</v>
       </c>
       <c r="G46">
-        <v>0.003777126340354309</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0229781300236721</v>
+      </c>
+      <c r="H46">
+        <v>-0.05297158408274796</v>
+      </c>
+      <c r="I46">
+        <v>-0.0008917688370214919</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09024477338202309</v>
+        <v>-0.09011466355837693</v>
       </c>
       <c r="C47">
-        <v>-0.01375525424734639</v>
+        <v>0.01833473475022999</v>
       </c>
       <c r="D47">
-        <v>-0.01548968392544464</v>
+        <v>0.006189239544449407</v>
       </c>
       <c r="E47">
-        <v>-0.02147470497685183</v>
+        <v>0.02572149395407051</v>
       </c>
       <c r="F47">
-        <v>0.02030166753505467</v>
+        <v>0.01128632832011003</v>
       </c>
       <c r="G47">
-        <v>0.01508364311408405</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03941707440057275</v>
+      </c>
+      <c r="H47">
+        <v>-0.05503659838167842</v>
+      </c>
+      <c r="I47">
+        <v>-0.02167291715052749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01894006604818458</v>
+        <v>-0.01933139961669853</v>
       </c>
       <c r="C48">
-        <v>-0.02513254779762612</v>
+        <v>0.01969252648031912</v>
       </c>
       <c r="D48">
-        <v>-0.01540542435873346</v>
+        <v>-0.000756100868464424</v>
       </c>
       <c r="E48">
-        <v>0.02999713689346351</v>
+        <v>0.01498852484740904</v>
       </c>
       <c r="F48">
-        <v>0.008793590034931747</v>
+        <v>-0.02948376496082356</v>
       </c>
       <c r="G48">
-        <v>0.000617609328168213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01444841552771164</v>
+      </c>
+      <c r="H48">
+        <v>-0.02320146787138514</v>
+      </c>
+      <c r="I48">
+        <v>-0.01173677764070322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09231766103079642</v>
+        <v>-0.08926794672128255</v>
       </c>
       <c r="C50">
-        <v>-0.03370315496630854</v>
+        <v>0.03567265348105136</v>
       </c>
       <c r="D50">
-        <v>-0.0248973525300212</v>
+        <v>-0.008939341552819799</v>
       </c>
       <c r="E50">
-        <v>-0.01700283270399503</v>
+        <v>0.0261729057529862</v>
       </c>
       <c r="F50">
-        <v>0.02879193302177582</v>
+        <v>0.005720772673863488</v>
       </c>
       <c r="G50">
-        <v>0.04264428434664182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>9.007129044380243e-05</v>
+      </c>
+      <c r="H50">
+        <v>-0.03651821765781769</v>
+      </c>
+      <c r="I50">
+        <v>0.002900918128582412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05512898518570176</v>
+        <v>-0.03950901367966421</v>
       </c>
       <c r="C51">
-        <v>0.01871079835519065</v>
+        <v>-0.006420891115239642</v>
       </c>
       <c r="D51">
-        <v>0.004299745278124365</v>
+        <v>0.01230578885379711</v>
       </c>
       <c r="E51">
-        <v>0.0798147800689752</v>
+        <v>0.008020133106217756</v>
       </c>
       <c r="F51">
-        <v>0.06633303780267022</v>
+        <v>-0.09682786597926611</v>
       </c>
       <c r="G51">
-        <v>0.01026158459782829</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05239555986380162</v>
+      </c>
+      <c r="H51">
+        <v>-0.05644104905253205</v>
+      </c>
+      <c r="I51">
+        <v>-0.0193284149764348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1419936994507762</v>
+        <v>-0.1244614260609175</v>
       </c>
       <c r="C53">
-        <v>-0.01739939724377921</v>
+        <v>0.0361046382532615</v>
       </c>
       <c r="D53">
-        <v>-0.05217244213340991</v>
+        <v>0.007926165658023416</v>
       </c>
       <c r="E53">
-        <v>-0.04930242007007127</v>
+        <v>0.05540562565941702</v>
       </c>
       <c r="F53">
-        <v>0.02061931964875824</v>
+        <v>0.04128986818969216</v>
       </c>
       <c r="G53">
-        <v>0.03425434229074491</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.021848876400045</v>
+      </c>
+      <c r="H53">
+        <v>0.001561538751733986</v>
+      </c>
+      <c r="I53">
+        <v>-0.03903809196161113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02668636460808038</v>
+        <v>-0.02575367754390625</v>
       </c>
       <c r="C54">
-        <v>-0.005130995602531672</v>
+        <v>0.002425990284886284</v>
       </c>
       <c r="D54">
-        <v>-0.02226676319009929</v>
+        <v>-0.004659451609713066</v>
       </c>
       <c r="E54">
-        <v>0.03604395942871904</v>
+        <v>0.02640569440651014</v>
       </c>
       <c r="F54">
-        <v>0.04242884288241664</v>
+        <v>-0.0352570189887243</v>
       </c>
       <c r="G54">
-        <v>-0.01878100880786886</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04861098111767763</v>
+      </c>
+      <c r="H54">
+        <v>-0.04550855308375612</v>
+      </c>
+      <c r="I54">
+        <v>-0.02840783304298712</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1033425972108622</v>
+        <v>-0.09945713226290115</v>
       </c>
       <c r="C55">
-        <v>-0.004654622987389628</v>
+        <v>0.02859748426572361</v>
       </c>
       <c r="D55">
-        <v>-0.03748000430596061</v>
+        <v>-0.01021475430744122</v>
       </c>
       <c r="E55">
-        <v>-0.01573700917052487</v>
+        <v>0.03685318281206619</v>
       </c>
       <c r="F55">
-        <v>-0.03923926508131831</v>
+        <v>0.0293548341418557</v>
       </c>
       <c r="G55">
-        <v>0.01750361381213499</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.008695125861366036</v>
+      </c>
+      <c r="H55">
+        <v>-0.00812796018811201</v>
+      </c>
+      <c r="I55">
+        <v>-0.01667401181688555</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1782254452307657</v>
+        <v>-0.1662696886887436</v>
       </c>
       <c r="C56">
-        <v>0.0119847728627898</v>
+        <v>0.01235482998667454</v>
       </c>
       <c r="D56">
-        <v>-0.08733708891459613</v>
+        <v>0.00124482561554925</v>
       </c>
       <c r="E56">
-        <v>-0.09988575266539576</v>
+        <v>0.08867997561040422</v>
       </c>
       <c r="F56">
-        <v>-0.06092577504920608</v>
+        <v>0.08461713720746231</v>
       </c>
       <c r="G56">
-        <v>0.0550872889254902</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02890949893047519</v>
+      </c>
+      <c r="H56">
+        <v>0.04683125208702233</v>
+      </c>
+      <c r="I56">
+        <v>-0.03362888016399358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08788502357712646</v>
+        <v>-0.06565731262848208</v>
       </c>
       <c r="C57">
-        <v>-0.03270751993386588</v>
+        <v>0.03447744265631304</v>
       </c>
       <c r="D57">
-        <v>-0.03074835349790892</v>
+        <v>0.0182880505828175</v>
       </c>
       <c r="E57">
-        <v>0.0457395478629128</v>
+        <v>0.0102442967815832</v>
       </c>
       <c r="F57">
-        <v>0.05022464778851822</v>
+        <v>-0.06656439262491737</v>
       </c>
       <c r="G57">
-        <v>0.01895730875383929</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02438966291880109</v>
+      </c>
+      <c r="H57">
+        <v>-0.03313132580194397</v>
+      </c>
+      <c r="I57">
+        <v>0.006997105775325746</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1848206417957915</v>
+        <v>-0.2080755277654368</v>
       </c>
       <c r="C58">
-        <v>-0.03569572033296071</v>
+        <v>0.09388900993987163</v>
       </c>
       <c r="D58">
-        <v>0.01936261152075025</v>
+        <v>0.09005660798759452</v>
       </c>
       <c r="E58">
-        <v>0.1265730535888452</v>
+        <v>-0.00325578350242232</v>
       </c>
       <c r="F58">
-        <v>-0.03834698170331841</v>
+        <v>-0.2379797113505328</v>
       </c>
       <c r="G58">
-        <v>0.07243050965044164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.193129586483734</v>
+      </c>
+      <c r="H58">
+        <v>-0.3879086422128883</v>
+      </c>
+      <c r="I58">
+        <v>0.2056506412431136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02221913141985592</v>
+        <v>-0.05204275375995158</v>
       </c>
       <c r="C59">
-        <v>0.1965214878824272</v>
+        <v>-0.1953288377747284</v>
       </c>
       <c r="D59">
-        <v>0.00617200356021302</v>
+        <v>0.01594462293437152</v>
       </c>
       <c r="E59">
-        <v>0.06498550861515205</v>
+        <v>-0.02103261122273189</v>
       </c>
       <c r="F59">
-        <v>0.01114784086034814</v>
+        <v>-0.07332707777711912</v>
       </c>
       <c r="G59">
-        <v>-0.009176516318975031</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.003910428721809215</v>
+      </c>
+      <c r="H59">
+        <v>0.02575938325475426</v>
+      </c>
+      <c r="I59">
+        <v>-0.05981716325613899</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1955392279371584</v>
+        <v>-0.188377135762318</v>
       </c>
       <c r="C60">
-        <v>0.08945875121323861</v>
+        <v>-0.04275990275872756</v>
       </c>
       <c r="D60">
-        <v>0.0007273190169183554</v>
+        <v>0.0484071843773192</v>
       </c>
       <c r="E60">
-        <v>0.1886145303307877</v>
+        <v>0.005582068478552257</v>
       </c>
       <c r="F60">
-        <v>0.04016433887297351</v>
+        <v>-0.2098614007666076</v>
       </c>
       <c r="G60">
-        <v>-0.01832265583764269</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.05872524558614443</v>
+      </c>
+      <c r="H60">
+        <v>0.2799978628125452</v>
+      </c>
+      <c r="I60">
+        <v>0.09704305295874202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04482045107644957</v>
+        <v>-0.03657106073326854</v>
       </c>
       <c r="C61">
-        <v>-0.01456097006523792</v>
+        <v>0.02922310457004201</v>
       </c>
       <c r="D61">
-        <v>2.144087497766113e-05</v>
+        <v>-0.0002261363853169689</v>
       </c>
       <c r="E61">
-        <v>0.03630574531973464</v>
+        <v>0.008291305664422752</v>
       </c>
       <c r="F61">
-        <v>0.00211646372156684</v>
+        <v>-0.03835554090134616</v>
       </c>
       <c r="G61">
-        <v>-0.006476885995546449</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.009345974360883112</v>
+      </c>
+      <c r="H61">
+        <v>0.004023804078986875</v>
+      </c>
+      <c r="I61">
+        <v>0.03986322957134473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04367788614438608</v>
+        <v>-0.03130999872490018</v>
       </c>
       <c r="C63">
-        <v>-0.01471040018037766</v>
+        <v>0.02031533978700076</v>
       </c>
       <c r="D63">
-        <v>-0.01696117655877193</v>
+        <v>0.002135753779821156</v>
       </c>
       <c r="E63">
-        <v>0.04105888293907398</v>
+        <v>0.01521765884246695</v>
       </c>
       <c r="F63">
-        <v>0.01822203667586969</v>
+        <v>-0.0291139698610198</v>
       </c>
       <c r="G63">
-        <v>0.00991396411940737</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.009183118022454039</v>
+      </c>
+      <c r="H63">
+        <v>-0.05001148746246251</v>
+      </c>
+      <c r="I63">
+        <v>-0.03431043976654836</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.07425773464906718</v>
+        <v>-0.05774661631997314</v>
       </c>
       <c r="C64">
-        <v>-0.05613782073512901</v>
+        <v>0.04705700611549932</v>
       </c>
       <c r="D64">
-        <v>-0.05862500028294904</v>
+        <v>-0.01359229526413382</v>
       </c>
       <c r="E64">
-        <v>0.0524630133735098</v>
+        <v>0.04564996557415858</v>
       </c>
       <c r="F64">
-        <v>0.02535224451585076</v>
+        <v>-0.05004544436875943</v>
       </c>
       <c r="G64">
-        <v>-0.0648873037906577</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05698948838332712</v>
+      </c>
+      <c r="H64">
+        <v>0.00710475491381784</v>
+      </c>
+      <c r="I64">
+        <v>-0.03601613856792723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02023513114118033</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01282319294252855</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.006173200588422261</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.00738375121061943</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.0006672614500897201</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02156484185841159</v>
+      </c>
+      <c r="H65">
+        <v>0.005360102155052903</v>
+      </c>
+      <c r="I65">
+        <v>0.01687728622989911</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.08777193432274405</v>
+        <v>-0.06722519589690849</v>
       </c>
       <c r="C66">
-        <v>-0.03769767433496402</v>
+        <v>0.05598822270689547</v>
       </c>
       <c r="D66">
-        <v>-0.03924658367699849</v>
+        <v>0.01467740831402654</v>
       </c>
       <c r="E66">
-        <v>0.08004896791801942</v>
+        <v>0.04934004240695498</v>
       </c>
       <c r="F66">
-        <v>0.02968109656078658</v>
+        <v>-0.06866773421542126</v>
       </c>
       <c r="G66">
-        <v>-0.0157585732600431</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01452420173764485</v>
+      </c>
+      <c r="H66">
+        <v>0.001109549218195213</v>
+      </c>
+      <c r="I66">
+        <v>0.03238158224518695</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.06168797227721213</v>
+        <v>-0.04747001557293232</v>
       </c>
       <c r="C67">
-        <v>0.01087366063488253</v>
+        <v>-0.004336003142742143</v>
       </c>
       <c r="D67">
-        <v>-0.01315138400588454</v>
+        <v>0.001934405255508174</v>
       </c>
       <c r="E67">
-        <v>0.01787937901257773</v>
+        <v>0.009490200419396527</v>
       </c>
       <c r="F67">
-        <v>-0.01040741458936232</v>
+        <v>-0.03692171049289057</v>
       </c>
       <c r="G67">
-        <v>-0.0200031574235404</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0349924479736715</v>
+      </c>
+      <c r="H67">
+        <v>0.006529625241374776</v>
+      </c>
+      <c r="I67">
+        <v>0.03777668642622625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.03260939624186907</v>
+        <v>-0.06109415100560606</v>
       </c>
       <c r="C68">
-        <v>0.2445600581581505</v>
+        <v>-0.2332223880143133</v>
       </c>
       <c r="D68">
-        <v>0.02641245315902799</v>
+        <v>0.01476758092634824</v>
       </c>
       <c r="E68">
-        <v>0.04991380103185185</v>
+        <v>-0.03806031053979875</v>
       </c>
       <c r="F68">
-        <v>0.02423332901666924</v>
+        <v>-0.05601886103788444</v>
       </c>
       <c r="G68">
-        <v>0.0157547024319468</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.005516598251193877</v>
+      </c>
+      <c r="H68">
+        <v>0.01479091055817712</v>
+      </c>
+      <c r="I68">
+        <v>-0.1618037985881342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07049107348193123</v>
+        <v>-0.07214033664435839</v>
       </c>
       <c r="C69">
-        <v>-0.01793289073796114</v>
+        <v>0.02047442876949996</v>
       </c>
       <c r="D69">
-        <v>-0.02558607010389093</v>
+        <v>0.006787880075055632</v>
       </c>
       <c r="E69">
-        <v>-0.01372079888919009</v>
+        <v>0.03159619948499931</v>
       </c>
       <c r="F69">
-        <v>0.01814783991733938</v>
+        <v>0.001737899110785759</v>
       </c>
       <c r="G69">
-        <v>0.02185913769801843</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02366191702477237</v>
+      </c>
+      <c r="H69">
+        <v>-0.02807750608725314</v>
+      </c>
+      <c r="I69">
+        <v>0.002773851224645441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.02320544144621049</v>
+        <v>-0.05855506853629543</v>
       </c>
       <c r="C71">
-        <v>0.2797057559018326</v>
+        <v>-0.2496698826267583</v>
       </c>
       <c r="D71">
-        <v>0.03300911493402685</v>
+        <v>0.01926383463689864</v>
       </c>
       <c r="E71">
-        <v>0.08374728400767639</v>
+        <v>-0.06229745022295796</v>
       </c>
       <c r="F71">
-        <v>0.03219113884986999</v>
+        <v>-0.07943723587076415</v>
       </c>
       <c r="G71">
-        <v>0.01098098861183595</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01665790552853218</v>
+      </c>
+      <c r="H71">
+        <v>0.02470277783162909</v>
+      </c>
+      <c r="I71">
+        <v>-0.1333031932964314</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.121967404549561</v>
+        <v>-0.1248149755048897</v>
       </c>
       <c r="C72">
-        <v>0.003551549008193593</v>
+        <v>0.03392260520906056</v>
       </c>
       <c r="D72">
-        <v>-0.04539008401633974</v>
+        <v>0.007149729198062568</v>
       </c>
       <c r="E72">
-        <v>0.08871236669981722</v>
+        <v>0.06248238592323573</v>
       </c>
       <c r="F72">
-        <v>-0.02352580715969585</v>
+        <v>-0.08360707865496968</v>
       </c>
       <c r="G72">
-        <v>0.01092699350256388</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03804339753224017</v>
+      </c>
+      <c r="H72">
+        <v>0.02128233983999289</v>
+      </c>
+      <c r="I72">
+        <v>0.08695993031693701</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2970089509190327</v>
+        <v>-0.2694917180448785</v>
       </c>
       <c r="C73">
-        <v>0.1673650156370641</v>
+        <v>-0.06431607750990903</v>
       </c>
       <c r="D73">
-        <v>0.06980797953220856</v>
+        <v>0.08749497018196462</v>
       </c>
       <c r="E73">
-        <v>0.3335622745901358</v>
+        <v>-0.04038092567551323</v>
       </c>
       <c r="F73">
-        <v>-0.00612340136803812</v>
+        <v>-0.3121942478394813</v>
       </c>
       <c r="G73">
-        <v>-0.05312502171527489</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1545836420598466</v>
+      </c>
+      <c r="H73">
+        <v>0.4796118318506528</v>
+      </c>
+      <c r="I73">
+        <v>0.2849107305019835</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1616616074580845</v>
+        <v>-0.1495443159006542</v>
       </c>
       <c r="C74">
-        <v>-0.007503914691234197</v>
+        <v>0.02862571619807967</v>
       </c>
       <c r="D74">
-        <v>-0.0479323604866926</v>
+        <v>0.01449068203290529</v>
       </c>
       <c r="E74">
-        <v>-0.03263815521699444</v>
+        <v>0.05192421169526733</v>
       </c>
       <c r="F74">
-        <v>-0.01721839697354045</v>
+        <v>0.05537180800883298</v>
       </c>
       <c r="G74">
-        <v>0.07616463536619865</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01582135301716338</v>
+      </c>
+      <c r="H74">
+        <v>0.03285557207512448</v>
+      </c>
+      <c r="I74">
+        <v>-0.02050320125248909</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2351683212563893</v>
+        <v>-0.2408753981190295</v>
       </c>
       <c r="C75">
-        <v>-0.009544793778455149</v>
+        <v>0.02872925802998021</v>
       </c>
       <c r="D75">
-        <v>-0.07673653492184164</v>
+        <v>0.02969328952600447</v>
       </c>
       <c r="E75">
-        <v>-0.1290900414716025</v>
+        <v>0.1078995926490886</v>
       </c>
       <c r="F75">
-        <v>0.007630252397664778</v>
+        <v>0.1414536286433389</v>
       </c>
       <c r="G75">
-        <v>0.05519355558630507</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.006741216337211396</v>
+      </c>
+      <c r="H75">
+        <v>0.02203697140662759</v>
+      </c>
+      <c r="I75">
+        <v>-0.08112301067097293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2466074793545551</v>
+        <v>-0.2640866966218386</v>
       </c>
       <c r="C76">
-        <v>0.01114469473117063</v>
+        <v>0.01546453195181553</v>
       </c>
       <c r="D76">
-        <v>-0.1130343857514394</v>
+        <v>-0.01061215342080487</v>
       </c>
       <c r="E76">
-        <v>-0.1273824824163812</v>
+        <v>0.1339764748561581</v>
       </c>
       <c r="F76">
-        <v>-0.04561572537742815</v>
+        <v>0.1863085239899605</v>
       </c>
       <c r="G76">
-        <v>0.07719149592286148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05582926644263595</v>
+      </c>
+      <c r="H76">
+        <v>0.05216744370806253</v>
+      </c>
+      <c r="I76">
+        <v>-0.05144372842910671</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1355546170603844</v>
+        <v>-0.1243799107147756</v>
       </c>
       <c r="C77">
-        <v>-0.0659918255203485</v>
+        <v>0.07536466473080435</v>
       </c>
       <c r="D77">
-        <v>0.03574965688992052</v>
+        <v>0.007824231335539463</v>
       </c>
       <c r="E77">
-        <v>0.1467398549352966</v>
+        <v>-0.02787286493220414</v>
       </c>
       <c r="F77">
-        <v>-0.001927265364893438</v>
+        <v>-0.1576940293988735</v>
       </c>
       <c r="G77">
-        <v>-0.05846773119107427</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.01359743390507829</v>
+      </c>
+      <c r="H77">
+        <v>-0.2121398648308639</v>
+      </c>
+      <c r="I77">
+        <v>-0.2491874372087892</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08488758236433773</v>
+        <v>-0.07481157645293529</v>
       </c>
       <c r="C78">
-        <v>-0.0554759295472485</v>
+        <v>0.07767808038271393</v>
       </c>
       <c r="D78">
-        <v>0.0107948987218109</v>
+        <v>-0.004970433640248703</v>
       </c>
       <c r="E78">
-        <v>0.05243494865767737</v>
+        <v>0.01445401911890931</v>
       </c>
       <c r="F78">
-        <v>0.01295354267770829</v>
+        <v>-0.07153149162451355</v>
       </c>
       <c r="G78">
-        <v>0.003772879815136624</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01133031433404816</v>
+      </c>
+      <c r="H78">
+        <v>-0.02149274618594884</v>
+      </c>
+      <c r="I78">
+        <v>-0.03190551597430553</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.0577789348921176</v>
+        <v>-0.1380351759084475</v>
       </c>
       <c r="C80">
-        <v>-0.02610382044707346</v>
+        <v>-0.02721954070499599</v>
       </c>
       <c r="D80">
-        <v>0.08465184601081445</v>
+        <v>-0.9750440824461907</v>
       </c>
       <c r="E80">
-        <v>-0.06770450607693305</v>
+        <v>-0.04981789771515093</v>
       </c>
       <c r="F80">
-        <v>-0.6921997036788163</v>
+        <v>-0.0454177760929544</v>
       </c>
       <c r="G80">
-        <v>-0.6670354130916909</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04805833089734963</v>
+      </c>
+      <c r="H80">
+        <v>0.04743440756145625</v>
+      </c>
+      <c r="I80">
+        <v>0.0343773950032723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1628317720970402</v>
+        <v>-0.1789234335591925</v>
       </c>
       <c r="C81">
-        <v>0.005021373599678488</v>
+        <v>0.005853323345827128</v>
       </c>
       <c r="D81">
-        <v>-0.06165099906775671</v>
+        <v>0.007739510683912252</v>
       </c>
       <c r="E81">
-        <v>-0.1636251485659211</v>
+        <v>0.0830400009300353</v>
       </c>
       <c r="F81">
-        <v>-0.02934206847788002</v>
+        <v>0.1582010976304932</v>
       </c>
       <c r="G81">
-        <v>0.08513111704554291</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02455312712784279</v>
+      </c>
+      <c r="H81">
+        <v>0.0125706580037046</v>
+      </c>
+      <c r="I81">
+        <v>-0.05486755106183603</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09412858408576495</v>
+        <v>-0.06986698195402827</v>
       </c>
       <c r="C83">
-        <v>-0.07007229047104779</v>
+        <v>0.05480967561279423</v>
       </c>
       <c r="D83">
-        <v>0.06488783737849831</v>
+        <v>0.01453739864708315</v>
       </c>
       <c r="E83">
-        <v>0.01405109194863673</v>
+        <v>-0.03379688723948418</v>
       </c>
       <c r="F83">
-        <v>0.06540235699496243</v>
+        <v>-0.04591951863453197</v>
       </c>
       <c r="G83">
-        <v>-0.0152463170668857</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.0585854125909942</v>
+      </c>
+      <c r="H83">
+        <v>-0.03296652282634975</v>
+      </c>
+      <c r="I83">
+        <v>-0.02365250726140452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2375631151997481</v>
+        <v>-0.2497176009862204</v>
       </c>
       <c r="C85">
-        <v>-0.06187106007780788</v>
+        <v>0.05632075199292395</v>
       </c>
       <c r="D85">
-        <v>-0.07974175278201576</v>
+        <v>0.009245735221712029</v>
       </c>
       <c r="E85">
-        <v>-0.1582693335799805</v>
+        <v>0.1074453083252727</v>
       </c>
       <c r="F85">
-        <v>-0.04955694403794702</v>
+        <v>0.1874765966416243</v>
       </c>
       <c r="G85">
-        <v>0.06768083007891444</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.02214641573188813</v>
+      </c>
+      <c r="H85">
+        <v>-0.01571684068874706</v>
+      </c>
+      <c r="I85">
+        <v>-0.05655321402494146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04052425836680144</v>
+        <v>-0.0254496444197304</v>
       </c>
       <c r="C86">
-        <v>-0.05775028294496442</v>
+        <v>0.056903991138624</v>
       </c>
       <c r="D86">
-        <v>-0.02007423567728758</v>
+        <v>0.0008770825232240547</v>
       </c>
       <c r="E86">
-        <v>0.06272599223325745</v>
+        <v>0.01766538679578704</v>
       </c>
       <c r="F86">
-        <v>-0.004910696569040931</v>
+        <v>-0.06842882929708402</v>
       </c>
       <c r="G86">
-        <v>0.01352015764091884</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.001085458082839689</v>
+      </c>
+      <c r="H86">
+        <v>-0.06943996631366368</v>
+      </c>
+      <c r="I86">
+        <v>-0.03091458967076785</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02740409423605052</v>
+        <v>-0.03238763079168587</v>
       </c>
       <c r="C87">
-        <v>0.05469777817472671</v>
+        <v>-0.009646646708153106</v>
       </c>
       <c r="D87">
-        <v>0.005807052645223102</v>
+        <v>0.001228782610981738</v>
       </c>
       <c r="E87">
-        <v>0.09484305455757731</v>
+        <v>0.002349213819924688</v>
       </c>
       <c r="F87">
-        <v>-0.01420062646823346</v>
+        <v>-0.09904348814901105</v>
       </c>
       <c r="G87">
-        <v>0.01149983447148034</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02338235693527587</v>
+      </c>
+      <c r="H87">
+        <v>-0.01149547311827618</v>
+      </c>
+      <c r="I87">
+        <v>0.01191666412216124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03810103504023759</v>
+        <v>-0.03035712395526972</v>
       </c>
       <c r="C88">
-        <v>-0.03330388511526827</v>
+        <v>0.01931237969514343</v>
       </c>
       <c r="D88">
-        <v>-0.005441740605870062</v>
+        <v>-0.009729353788796366</v>
       </c>
       <c r="E88">
-        <v>-0.01535419440532036</v>
+        <v>0.01023991585073903</v>
       </c>
       <c r="F88">
-        <v>-0.002856628184852699</v>
+        <v>0.01685563231119098</v>
       </c>
       <c r="G88">
-        <v>0.00108626924597236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.04239836025797061</v>
+      </c>
+      <c r="H88">
+        <v>-0.0381640607567357</v>
+      </c>
+      <c r="I88">
+        <v>0.02103942124747103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.03557418673337109</v>
+        <v>-0.09571187909212996</v>
       </c>
       <c r="C89">
-        <v>0.3835239167748756</v>
+        <v>-0.382616266588525</v>
       </c>
       <c r="D89">
-        <v>0.1028250259382234</v>
+        <v>0.04237484222262166</v>
       </c>
       <c r="E89">
-        <v>-0.000375345491706409</v>
+        <v>-0.08613479128758141</v>
       </c>
       <c r="F89">
-        <v>0.03463621671354011</v>
+        <v>-0.03898230343390097</v>
       </c>
       <c r="G89">
-        <v>0.001285494791934985</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03612892834541117</v>
+      </c>
+      <c r="H89">
+        <v>-0.05411038977698712</v>
+      </c>
+      <c r="I89">
+        <v>-0.2495425548320539</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.02933328617189994</v>
+        <v>-0.06542623224717213</v>
       </c>
       <c r="C90">
-        <v>0.3016854756673352</v>
+        <v>-0.3242005994857114</v>
       </c>
       <c r="D90">
-        <v>0.05733876716406383</v>
+        <v>0.01719046702585624</v>
       </c>
       <c r="E90">
-        <v>0.04846315713314683</v>
+        <v>-0.07064641435891508</v>
       </c>
       <c r="F90">
-        <v>0.04508851971334115</v>
+        <v>-0.03729160484590017</v>
       </c>
       <c r="G90">
-        <v>-0.0001619628297376986</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.0252158612132219</v>
+      </c>
+      <c r="H90">
+        <v>-0.007694756778625111</v>
+      </c>
+      <c r="I90">
+        <v>-0.2171859998624036</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2746367535923745</v>
+        <v>-0.2894984458974694</v>
       </c>
       <c r="C91">
-        <v>-0.04813776155959899</v>
+        <v>0.05142159247644475</v>
       </c>
       <c r="D91">
-        <v>-0.07953897030810603</v>
+        <v>0.01647745324506666</v>
       </c>
       <c r="E91">
-        <v>-0.2747259986969508</v>
+        <v>0.09684724335564726</v>
       </c>
       <c r="F91">
-        <v>-0.05723867920410178</v>
+        <v>0.2807301150545919</v>
       </c>
       <c r="G91">
-        <v>0.04384582721938968</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02553941308195934</v>
+      </c>
+      <c r="H91">
+        <v>0.01426079250323012</v>
+      </c>
+      <c r="I91">
+        <v>-0.0930536197370397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.06436703379456871</v>
+        <v>-0.1299810569455629</v>
       </c>
       <c r="C92">
-        <v>0.4019275186845427</v>
+        <v>-0.4164939612896368</v>
       </c>
       <c r="D92">
-        <v>0.1643942209779901</v>
+        <v>-0.001863418340854142</v>
       </c>
       <c r="E92">
-        <v>-0.09992055279761147</v>
+        <v>-0.1121348776042742</v>
       </c>
       <c r="F92">
-        <v>-0.09132433045128154</v>
+        <v>0.121187252761476</v>
       </c>
       <c r="G92">
-        <v>-0.03053358881294996</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.06945327615357864</v>
+      </c>
+      <c r="H92">
+        <v>-0.4304526802922943</v>
+      </c>
+      <c r="I92">
+        <v>0.6570939937589367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.02190906748991713</v>
+        <v>-0.07654895927198536</v>
       </c>
       <c r="C93">
-        <v>0.367468910735906</v>
+        <v>-0.3906079546058849</v>
       </c>
       <c r="D93">
-        <v>0.08763648293309516</v>
+        <v>0.03486532138127628</v>
       </c>
       <c r="E93">
-        <v>-0.02898296046569668</v>
+        <v>-0.1098527155702088</v>
       </c>
       <c r="F93">
-        <v>-0.009674113055770844</v>
+        <v>-0.009545419767638079</v>
       </c>
       <c r="G93">
-        <v>-0.02533022679104429</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03641243460217641</v>
+      </c>
+      <c r="H93">
+        <v>0.02091975048411191</v>
+      </c>
+      <c r="I93">
+        <v>-0.1498914656424145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2718400128700618</v>
+        <v>-0.3084600208121117</v>
       </c>
       <c r="C94">
-        <v>0.0823072911174083</v>
+        <v>-0.03523514688942241</v>
       </c>
       <c r="D94">
-        <v>-0.05252429829533869</v>
+        <v>0.04175781914558066</v>
       </c>
       <c r="E94">
-        <v>-0.3710232230670512</v>
+        <v>0.1282839457277792</v>
       </c>
       <c r="F94">
-        <v>-0.2471828411150448</v>
+        <v>0.3446424013305811</v>
       </c>
       <c r="G94">
-        <v>0.3066987361245297</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2071909897843762</v>
+      </c>
+      <c r="H94">
+        <v>-0.1143495929853488</v>
+      </c>
+      <c r="I94">
+        <v>-0.02549071674178691</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1904946957944413</v>
+        <v>-0.1343205061657754</v>
       </c>
       <c r="C95">
-        <v>0.004270353628806443</v>
+        <v>0.04284271086345135</v>
       </c>
       <c r="D95">
-        <v>-0.01855053454863565</v>
+        <v>0.09731136432890214</v>
       </c>
       <c r="E95">
-        <v>-0.3512685972995827</v>
+        <v>0.04413288595150711</v>
       </c>
       <c r="F95">
-        <v>0.6155190460825707</v>
+        <v>0.073723982411209</v>
       </c>
       <c r="G95">
-        <v>-0.6027072603713775</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9010490535025029</v>
+      </c>
+      <c r="H95">
+        <v>0.1221613735372945</v>
+      </c>
+      <c r="I95">
+        <v>0.1124957036427369</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2263718883375481</v>
+        <v>-0.2081491551024445</v>
       </c>
       <c r="C98">
-        <v>0.1050291187765895</v>
+        <v>-0.0527071949656826</v>
       </c>
       <c r="D98">
-        <v>0.0367494147824886</v>
+        <v>0.06150300747692122</v>
       </c>
       <c r="E98">
-        <v>0.09412659238448946</v>
+        <v>-0.03251748216154139</v>
       </c>
       <c r="F98">
-        <v>0.05067229336905085</v>
+        <v>-0.1662985929928865</v>
       </c>
       <c r="G98">
-        <v>0.0007592677757914842</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07008746927780013</v>
+      </c>
+      <c r="H98">
+        <v>0.3195666634944513</v>
+      </c>
+      <c r="I98">
+        <v>0.1617065583284789</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.02363275818396236</v>
+        <v>-0.01812045291433937</v>
       </c>
       <c r="C101">
-        <v>-0.02525406014643704</v>
+        <v>0.02834902527362615</v>
       </c>
       <c r="D101">
-        <v>-0.03030230178868146</v>
+        <v>-0.004292220281757671</v>
       </c>
       <c r="E101">
-        <v>0.03325137028032644</v>
+        <v>0.03507281243193892</v>
       </c>
       <c r="F101">
-        <v>0.01573149518719307</v>
+        <v>-0.06350607713325386</v>
       </c>
       <c r="G101">
-        <v>0.003933276534377228</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.009285523189059513</v>
+      </c>
+      <c r="H101">
+        <v>-0.115297453397927</v>
+      </c>
+      <c r="I101">
+        <v>0.05648188826595452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1128877516474115</v>
+        <v>-0.1205353816869651</v>
       </c>
       <c r="C102">
-        <v>-0.02260246277411571</v>
+        <v>0.02192860400202507</v>
       </c>
       <c r="D102">
-        <v>-0.04371917016281378</v>
+        <v>-0.001929624501868126</v>
       </c>
       <c r="E102">
-        <v>-0.09213248580058805</v>
+        <v>0.05645438228731401</v>
       </c>
       <c r="F102">
-        <v>-0.01406198432077229</v>
+        <v>0.1001147478238189</v>
       </c>
       <c r="G102">
-        <v>-0.007038531904811851</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01316632378789426</v>
+      </c>
+      <c r="H102">
+        <v>0.01630552661453235</v>
+      </c>
+      <c r="I102">
+        <v>-0.05964740751185953</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.01462091144249554</v>
+        <v>-0.02999935012655923</v>
       </c>
       <c r="C103">
-        <v>-0.006622814619012464</v>
+        <v>0.007611877662527612</v>
       </c>
       <c r="D103">
-        <v>-0.01709373073068156</v>
+        <v>-0.00844347448974769</v>
       </c>
       <c r="E103">
-        <v>-0.02807526226753977</v>
+        <v>0.02083234729126179</v>
       </c>
       <c r="F103">
-        <v>0.001340736288322565</v>
+        <v>0.02718674571652305</v>
       </c>
       <c r="G103">
-        <v>0.004370722822346924</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01076858355492005</v>
+      </c>
+      <c r="H103">
+        <v>-0.01184027158705779</v>
+      </c>
+      <c r="I103">
+        <v>-0.02496585190393756</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
